--- a/workfile/锐安项目文档/sap/sap20190627/现金流量表业务逻辑说明_20190626_V1.xlsx
+++ b/workfile/锐安项目文档/sap/sap20190627/现金流量表业务逻辑说明_20190626_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="现金流量表逻辑" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="明细表及余额表字段" sheetId="3" r:id="rId3"/>
     <sheet name="科目表及利润中心表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -11337,7 +11337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -36110,10 +36110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection sqref="A1:AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -36758,170 +36758,104 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="5" t="s">
+    <row r="14" spans="1:29">
+      <c r="A14" s="5" t="s">
         <v>1616</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="7" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>1627</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>1628</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="7" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>1656</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>1695</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>1662</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7" t="s">
         <v>1676</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>1677</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>1042</v>
@@ -36934,16 +36868,16 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
         <v>1677</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>1042</v>
@@ -36956,177 +36890,174 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
         <v>1616</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="7" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="7" t="s">
         <v>1618</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>1619</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>1620</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>1625</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>1626</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>1627</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>1628</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>1633</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="7" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>1648</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>1649</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>1655</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>1656</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>1695</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>1662</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="7" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
         <v>1675</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="7" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="7" t="s">
         <v>1676</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>1703</v>
-      </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>1704</v>
-      </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>1705</v>
-      </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
         <v>1702</v>
       </c>
@@ -37140,15 +37071,15 @@
         <v>1061</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:9">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>1702</v>
@@ -37163,293 +37094,272 @@
         <v>1061</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5" t="s">
+      <c r="I32" s="9"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5" t="s">
         <v>1616</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>1708</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="7" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>1628</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>1631</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>1709</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>1634</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="7" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>1657</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>1661</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>1711</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>1663</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7" t="s">
         <v>1676</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>1677</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>1713</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>1713</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>1713</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>1716</v>
-      </c>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>1042</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>885</v>
+        <v>746</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>1718</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>1109</v>
-      </c>
+        <v>1714</v>
+      </c>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>1702</v>
+        <v>1677</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>1042</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>885</v>
+        <v>746</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>1720</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>1109</v>
-      </c>
+        <v>1715</v>
+      </c>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>1702</v>
+        <v>1677</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>1042</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>885</v>
+        <v>746</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>1722</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>1109</v>
-      </c>
+        <v>1716</v>
+      </c>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9"/>
@@ -37466,24 +37376,115 @@
         <v>885</v>
       </c>
       <c r="F41" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>1718</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>1723</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>1724</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J44" s="9" t="s">
         <v>1109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37491,8 +37492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K597"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
